--- a/template Excel/HR/ErrorCode.xlsx
+++ b/template Excel/HR/ErrorCode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0942A6-2960-4C63-88D0-1DA92E90A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B59497-7EFD-4E66-B597-54FE9FA50961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{42BD99E6-B76B-4ECC-85C5-C449D3179880}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve"> ErrorDescription</t>
-  </si>
-  <si>
     <t>ErrorCodeId</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Incomplete task</t>
+  </si>
+  <si>
+    <t>ErrorDescription</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,10 +460,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/template Excel/HR/ErrorCode.xlsx
+++ b/template Excel/HR/ErrorCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B59497-7EFD-4E66-B597-54FE9FA50961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358C5656-91A5-4DED-885F-5329473E6C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{42BD99E6-B76B-4ECC-85C5-C449D3179880}"/>
   </bookViews>
